--- a/bidirectional/report/1-layer_with_beam_search/analysis.xlsx
+++ b/bidirectional/report/1-layer_with_beam_search/analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29070" windowHeight="15870"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>test_accuracy</t>
   </si>
   <si>
     <t>test_dfa_accuracy</t>
+  </si>
+  <si>
+    <t>train_accuracy</t>
+  </si>
+  <si>
+    <t>dev_accuracy</t>
   </si>
 </sst>
 </file>
@@ -100,11 +106,353 @@
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>train_accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$CS$1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.078E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.5229999999999993E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8466E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5275000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0132999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7887999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3276999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.113163</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.13091900000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.13944100000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.15246199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.176847</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.182528</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.196023</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.20738599999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.22017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.22750899999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.23319100000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.247396</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.25828600000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.26680900000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.278646</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.29190300000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.29474400000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.29498099999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.296402</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.30942199999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.30729200000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.30918600000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.32291700000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.33451700000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.32220599999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.33854200000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.337121</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.34304000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.34611700000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.35369299999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.36931799999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.35582399999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.36032199999999998</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.382102</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.36505700000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.38423299999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.37618400000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.38281199999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.391098</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.390625</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.393229</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.399621</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.40151500000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.40601300000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.40554000000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.402225</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.42021799999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.41500900000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.41619299999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.419271</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.42376900000000001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.43584299999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.43181799999999998</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.43134499999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.43394899999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.42921399999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.441525</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.44034099999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.44507600000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.45383499999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.46093800000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.45194099999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.45999099999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.459754</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.45596599999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.46567199999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.46283099999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.46661900000000001</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.47253800000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.47348499999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.47419499999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.47016999999999998</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.47964000000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.47348499999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.48674200000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.48200799999999999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.48745300000000003</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.492898</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.49858000000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.49573899999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.50047299999999995</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.50473500000000004</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.50236700000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.50686600000000004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.51373100000000005</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.51088999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FACA-4294-87A4-26F4674FC298}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -139,7 +487,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$CS$1</c:f>
+              <c:f>Sheet1!$B$3:$CS$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -443,10 +791,10 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>Sheet1!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -481,7 +829,7 @@
           </c:marker>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$CS$2</c:f>
+              <c:f>Sheet1!$B$4:$CS$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="96"/>
@@ -780,6 +1128,348 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0682-4ED1-A2EC-762657BF5CA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>dev_accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$CS$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.633E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8042999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17744599999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.26368200000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.330017</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35489199999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.37976799999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42620200000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.45107799999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46932000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.480929</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.49917099999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.51077899999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.52404600000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.53897200000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.53565499999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.55555600000000005</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.55721399999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.57048100000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.58706499999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.59369799999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.59038100000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.60033199999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.60696499999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.62023200000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.61525700000000005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.63184099999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.635158</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.64013299999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.64510800000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.63349900000000003</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.64676599999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.65339999999999998</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66335</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.64842500000000003</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.66169199999999995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.66169199999999995</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.65837500000000004</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.66832499999999995</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.65008299999999997</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.66500800000000004</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.67827499999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.68656700000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.67495899999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.67827499999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.67827499999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.66666700000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.694859</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.68988400000000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.67330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.694859</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.69154199999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.69983399999999996</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.69154199999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.69651700000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.68656700000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.69983399999999996</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.70315099999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.694859</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.69651700000000005</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.694859</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.68656700000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.70149300000000003</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.68490899999999999</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.67993400000000004</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.69320099999999996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.69651700000000005</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.688226</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.69817600000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.70315099999999997</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.69651700000000005</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.70149300000000003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.68490899999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.70646799999999998</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.69651700000000005</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.70480900000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.70315099999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.70646799999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.71475999999999995</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.70812600000000003</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.71144300000000005</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.69320099999999996</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.70149300000000003</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.70315099999999997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.694859</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.70978399999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.70480900000000002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.70978399999999997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.70315099999999997</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.70315099999999997</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.70646799999999998</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.68988400000000005</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.68656700000000004</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.70978399999999997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.70978399999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FACA-4294-87A4-26F4674FC298}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -798,6 +1488,7 @@
         <c:axId val="366008776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -859,6 +1550,7 @@
         <c:axId val="366004184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -925,6 +1617,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1523,15 +2247,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1816,10 +2540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CS2"/>
+  <dimension ref="A1:CS4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+      <selection activeCell="T32" sqref="T32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1829,587 +2553,1173 @@
   <sheetData>
     <row r="1" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1">
         <v>0</v>
       </c>
       <c r="C1">
-        <v>4.1700000000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="D1">
-        <v>5.7548000000000002E-2</v>
+        <v>3.078E-3</v>
       </c>
       <c r="E1">
-        <v>0.15763099999999999</v>
+        <v>8.5229999999999993E-3</v>
       </c>
       <c r="F1">
-        <v>0.23519599999999999</v>
+        <v>1.8466E-2</v>
       </c>
       <c r="G1">
-        <v>0.275229</v>
+        <v>3.5275000000000001E-2</v>
       </c>
       <c r="H1">
-        <v>0.33194299999999999</v>
+        <v>6.0132999999999999E-2</v>
       </c>
       <c r="I1">
-        <v>0.36280200000000001</v>
+        <v>7.7887999999999999E-2</v>
       </c>
       <c r="J1">
-        <v>0.39366099999999998</v>
+        <v>9.3276999999999999E-2</v>
       </c>
       <c r="K1">
-        <v>0.421184</v>
+        <v>0.113163</v>
       </c>
       <c r="L1">
-        <v>0.436197</v>
+        <v>0.13091900000000001</v>
       </c>
       <c r="M1">
-        <v>0.46372000000000002</v>
+        <v>0.13944100000000001</v>
       </c>
       <c r="N1">
-        <v>0.482902</v>
+        <v>0.15246199999999999</v>
       </c>
       <c r="O1">
-        <v>0.50375300000000001</v>
+        <v>0.176847</v>
       </c>
       <c r="P1">
-        <v>0.52710599999999996</v>
+        <v>0.182528</v>
       </c>
       <c r="Q1">
-        <v>0.52710599999999996</v>
+        <v>0.196023</v>
       </c>
       <c r="R1">
-        <v>0.53544599999999998</v>
+        <v>0.20738599999999999</v>
       </c>
       <c r="S1">
-        <v>0.56130100000000005</v>
+        <v>0.22017</v>
       </c>
       <c r="T1">
-        <v>0.55129300000000003</v>
+        <v>0.22750899999999999</v>
       </c>
       <c r="U1">
-        <v>0.58632200000000001</v>
+        <v>0.23319100000000001</v>
       </c>
       <c r="V1">
-        <v>0.59299400000000002</v>
+        <v>0.247396</v>
       </c>
       <c r="W1">
-        <v>0.60884099999999997</v>
+        <v>0.25828600000000002</v>
       </c>
       <c r="X1">
-        <v>0.61384499999999997</v>
+        <v>0.26680900000000002</v>
       </c>
       <c r="Y1">
-        <v>0.61801499999999998</v>
+        <v>0.278646</v>
       </c>
       <c r="Z1">
-        <v>0.62468699999999999</v>
+        <v>0.29190300000000002</v>
       </c>
       <c r="AA1">
-        <v>0.62218499999999999</v>
+        <v>0.29474400000000001</v>
       </c>
       <c r="AB1">
-        <v>0.61718099999999998</v>
+        <v>0.29498099999999999</v>
       </c>
       <c r="AC1">
-        <v>0.627189</v>
+        <v>0.296402</v>
       </c>
       <c r="AD1">
-        <v>0.62552099999999999</v>
+        <v>0.30942199999999997</v>
       </c>
       <c r="AE1">
-        <v>0.64387000000000005</v>
+        <v>0.30729200000000001</v>
       </c>
       <c r="AF1">
-        <v>0.64303600000000005</v>
+        <v>0.30918600000000002</v>
       </c>
       <c r="AG1">
-        <v>0.65054199999999995</v>
+        <v>0.32291700000000001</v>
       </c>
       <c r="AH1">
-        <v>0.65220999999999996</v>
+        <v>0.33451700000000001</v>
       </c>
       <c r="AI1">
-        <v>0.64803999999999995</v>
+        <v>0.32220599999999999</v>
       </c>
       <c r="AJ1">
-        <v>0.662219</v>
+        <v>0.33854200000000001</v>
       </c>
       <c r="AK1">
-        <v>0.64637199999999995</v>
+        <v>0.337121</v>
       </c>
       <c r="AL1">
-        <v>0.65971599999999997</v>
+        <v>0.34304000000000001</v>
       </c>
       <c r="AM1">
-        <v>0.67139300000000002</v>
+        <v>0.34611700000000001</v>
       </c>
       <c r="AN1">
-        <v>0.66638900000000001</v>
+        <v>0.35369299999999998</v>
       </c>
       <c r="AO1">
-        <v>0.663887</v>
+        <v>0.36931799999999998</v>
       </c>
       <c r="AP1">
-        <v>0.66805700000000001</v>
+        <v>0.35582399999999997</v>
       </c>
       <c r="AQ1">
-        <v>0.66972500000000001</v>
+        <v>0.36032199999999998</v>
       </c>
       <c r="AR1">
-        <v>0.67556300000000002</v>
+        <v>0.382102</v>
       </c>
       <c r="AS1">
-        <v>0.67472900000000002</v>
+        <v>0.36505700000000002</v>
       </c>
       <c r="AT1">
-        <v>0.67723100000000003</v>
+        <v>0.38423299999999999</v>
       </c>
       <c r="AU1">
-        <v>0.67472900000000002</v>
+        <v>0.37618400000000002</v>
       </c>
       <c r="AV1">
-        <v>0.68140100000000003</v>
+        <v>0.38281199999999999</v>
       </c>
       <c r="AW1">
-        <v>0.67889900000000003</v>
+        <v>0.391098</v>
       </c>
       <c r="AX1">
-        <v>0.68807300000000005</v>
+        <v>0.390625</v>
       </c>
       <c r="AY1">
-        <v>0.68473700000000004</v>
+        <v>0.393229</v>
       </c>
       <c r="AZ1">
-        <v>0.68140100000000003</v>
+        <v>0.399621</v>
       </c>
       <c r="BA1">
-        <v>0.68557100000000004</v>
+        <v>0.40151500000000001</v>
       </c>
       <c r="BB1">
-        <v>0.68640500000000004</v>
+        <v>0.40601300000000001</v>
       </c>
       <c r="BC1">
-        <v>0.69557999999999998</v>
+        <v>0.40554000000000001</v>
       </c>
       <c r="BD1">
-        <v>0.68974100000000005</v>
+        <v>0.402225</v>
       </c>
       <c r="BE1">
-        <v>0.68640500000000004</v>
+        <v>0.42021799999999998</v>
       </c>
       <c r="BF1">
-        <v>0.68890700000000005</v>
+        <v>0.41500900000000002</v>
       </c>
       <c r="BG1">
-        <v>0.69140999999999997</v>
+        <v>0.41619299999999998</v>
       </c>
       <c r="BH1">
-        <v>0.68640500000000004</v>
+        <v>0.419271</v>
       </c>
       <c r="BI1">
-        <v>0.69724799999999998</v>
+        <v>0.42376900000000001</v>
       </c>
       <c r="BJ1">
-        <v>0.707256</v>
+        <v>0.43584299999999998</v>
       </c>
       <c r="BK1">
-        <v>0.68723900000000004</v>
+        <v>0.43181799999999998</v>
       </c>
       <c r="BL1">
-        <v>0.69224399999999997</v>
+        <v>0.43134499999999998</v>
       </c>
       <c r="BM1">
-        <v>0.69307799999999997</v>
+        <v>0.43394899999999997</v>
       </c>
       <c r="BN1">
-        <v>0.68140100000000003</v>
+        <v>0.42921399999999998</v>
       </c>
       <c r="BO1">
-        <v>0.69057500000000005</v>
+        <v>0.441525</v>
       </c>
       <c r="BP1">
-        <v>0.69057500000000005</v>
+        <v>0.44034099999999998</v>
       </c>
       <c r="BQ1">
-        <v>0.70058399999999998</v>
+        <v>0.44507600000000003</v>
       </c>
       <c r="BR1">
-        <v>0.68640500000000004</v>
+        <v>0.45383499999999999</v>
       </c>
       <c r="BS1">
-        <v>0.68723900000000004</v>
+        <v>0.46093800000000001</v>
       </c>
       <c r="BT1">
-        <v>0.68974100000000005</v>
+        <v>0.45194099999999998</v>
       </c>
       <c r="BU1">
-        <v>0.69307799999999997</v>
+        <v>0.45999099999999998</v>
       </c>
       <c r="BV1">
-        <v>0.70141799999999999</v>
+        <v>0.459754</v>
       </c>
       <c r="BW1">
-        <v>0.68223500000000004</v>
+        <v>0.45596599999999998</v>
       </c>
       <c r="BX1">
-        <v>0.70058399999999998</v>
+        <v>0.46567199999999997</v>
       </c>
       <c r="BY1">
-        <v>0.69808199999999998</v>
+        <v>0.46283099999999999</v>
       </c>
       <c r="BZ1">
-        <v>0.70558799999999999</v>
+        <v>0.46661900000000001</v>
       </c>
       <c r="CA1">
-        <v>0.69974999999999998</v>
+        <v>0.47253800000000001</v>
       </c>
       <c r="CB1">
-        <v>0.69474599999999997</v>
+        <v>0.47348499999999999</v>
       </c>
       <c r="CC1">
-        <v>0.69307799999999997</v>
+        <v>0.47419499999999998</v>
       </c>
       <c r="CD1">
-        <v>0.69891599999999998</v>
+        <v>0.47016999999999998</v>
       </c>
       <c r="CE1">
-        <v>0.67806500000000003</v>
+        <v>0.47964000000000001</v>
       </c>
       <c r="CF1">
-        <v>0.70225199999999999</v>
+        <v>0.47348499999999999</v>
       </c>
       <c r="CG1">
-        <v>0.69974999999999998</v>
+        <v>0.48674200000000001</v>
       </c>
       <c r="CH1">
-        <v>0.69224399999999997</v>
+        <v>0.48200799999999999</v>
       </c>
       <c r="CI1">
-        <v>0.69557999999999998</v>
+        <v>0.48745300000000003</v>
       </c>
       <c r="CJ1">
-        <v>0.70141799999999999</v>
+        <v>0.492898</v>
       </c>
       <c r="CK1">
-        <v>0.70058399999999998</v>
+        <v>0.49858000000000002</v>
       </c>
       <c r="CL1">
-        <v>0.69057500000000005</v>
+        <v>0.49573899999999999</v>
       </c>
       <c r="CM1">
-        <v>0.70141799999999999</v>
+        <v>0.50047299999999995</v>
       </c>
       <c r="CN1">
-        <v>0.69307799999999997</v>
+        <v>0.50473500000000004</v>
       </c>
       <c r="CO1">
-        <v>0.707256</v>
+        <v>0.50236700000000001</v>
       </c>
       <c r="CP1">
-        <v>0.69724799999999998</v>
+        <v>0.50686600000000004</v>
       </c>
       <c r="CQ1">
-        <v>0.68223500000000004</v>
+        <v>0.5</v>
       </c>
       <c r="CR1">
-        <v>0.70308599999999999</v>
+        <v>0.51373100000000005</v>
       </c>
       <c r="CS1">
-        <v>0.69641399999999998</v>
+        <v>0.51088999999999996</v>
       </c>
     </row>
     <row r="2" spans="1:97" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>6.633E-3</v>
+      </c>
+      <c r="D2">
+        <v>5.8042999999999997E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.17744599999999999</v>
+      </c>
+      <c r="F2">
+        <v>0.26368200000000003</v>
+      </c>
+      <c r="G2">
+        <v>0.330017</v>
+      </c>
+      <c r="H2">
+        <v>0.35489199999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.37976799999999999</v>
+      </c>
+      <c r="J2">
+        <v>0.42620200000000003</v>
+      </c>
+      <c r="K2">
+        <v>0.45107799999999998</v>
+      </c>
+      <c r="L2">
+        <v>0.46932000000000001</v>
+      </c>
+      <c r="M2">
+        <v>0.480929</v>
+      </c>
+      <c r="N2">
+        <v>0.49917099999999998</v>
+      </c>
+      <c r="O2">
+        <v>0.51077899999999998</v>
+      </c>
+      <c r="P2">
+        <v>0.52404600000000001</v>
+      </c>
+      <c r="Q2">
+        <v>0.53897200000000001</v>
+      </c>
+      <c r="R2">
+        <v>0.53565499999999999</v>
+      </c>
+      <c r="S2">
+        <v>0.55555600000000005</v>
+      </c>
+      <c r="T2">
+        <v>0.55721399999999999</v>
+      </c>
+      <c r="U2">
+        <v>0.57048100000000002</v>
+      </c>
+      <c r="V2">
+        <v>0.58706499999999995</v>
+      </c>
+      <c r="W2">
+        <v>0.59369799999999995</v>
+      </c>
+      <c r="X2">
+        <v>0.59038100000000004</v>
+      </c>
+      <c r="Y2">
+        <v>0.60033199999999998</v>
+      </c>
+      <c r="Z2">
+        <v>0.60696499999999998</v>
+      </c>
+      <c r="AA2">
+        <v>0.62023200000000001</v>
+      </c>
+      <c r="AB2">
+        <v>0.61525700000000005</v>
+      </c>
+      <c r="AC2">
+        <v>0.63184099999999999</v>
+      </c>
+      <c r="AD2">
+        <v>0.635158</v>
+      </c>
+      <c r="AE2">
+        <v>0.64013299999999995</v>
+      </c>
+      <c r="AF2">
+        <v>0.64510800000000001</v>
+      </c>
+      <c r="AG2">
+        <v>0.63349900000000003</v>
+      </c>
+      <c r="AH2">
+        <v>0.64676599999999995</v>
+      </c>
+      <c r="AI2">
+        <v>0.65339999999999998</v>
+      </c>
+      <c r="AJ2">
+        <v>0.66335</v>
+      </c>
+      <c r="AK2">
+        <v>0.64842500000000003</v>
+      </c>
+      <c r="AL2">
+        <v>0.66169199999999995</v>
+      </c>
+      <c r="AM2">
+        <v>0.66169199999999995</v>
+      </c>
+      <c r="AN2">
+        <v>0.65837500000000004</v>
+      </c>
+      <c r="AO2">
+        <v>0.66832499999999995</v>
+      </c>
+      <c r="AP2">
+        <v>0.65008299999999997</v>
+      </c>
+      <c r="AQ2">
+        <v>0.66500800000000004</v>
+      </c>
+      <c r="AR2">
+        <v>0.67827499999999996</v>
+      </c>
+      <c r="AS2">
+        <v>0.68656700000000004</v>
+      </c>
+      <c r="AT2">
+        <v>0.67495899999999998</v>
+      </c>
+      <c r="AU2">
+        <v>0.67827499999999996</v>
+      </c>
+      <c r="AV2">
+        <v>0.67827499999999996</v>
+      </c>
+      <c r="AW2">
+        <v>0.66666700000000001</v>
+      </c>
+      <c r="AX2">
+        <v>0.694859</v>
+      </c>
+      <c r="AY2">
+        <v>0.68988400000000005</v>
+      </c>
+      <c r="AZ2">
+        <v>0.67330000000000001</v>
+      </c>
+      <c r="BA2">
+        <v>0.694859</v>
+      </c>
+      <c r="BB2">
+        <v>0.69154199999999999</v>
+      </c>
+      <c r="BC2">
+        <v>0.69983399999999996</v>
+      </c>
+      <c r="BD2">
+        <v>0.69154199999999999</v>
+      </c>
+      <c r="BE2">
+        <v>0.69651700000000005</v>
+      </c>
+      <c r="BF2">
+        <v>0.68656700000000004</v>
+      </c>
+      <c r="BG2">
+        <v>0.69983399999999996</v>
+      </c>
+      <c r="BH2">
+        <v>0.70315099999999997</v>
+      </c>
+      <c r="BI2">
+        <v>0.694859</v>
+      </c>
+      <c r="BJ2">
+        <v>0.69651700000000005</v>
+      </c>
+      <c r="BK2">
+        <v>0.694859</v>
+      </c>
+      <c r="BL2">
+        <v>0.68656700000000004</v>
+      </c>
+      <c r="BM2">
+        <v>0.70149300000000003</v>
+      </c>
+      <c r="BN2">
+        <v>0.68490899999999999</v>
+      </c>
+      <c r="BO2">
+        <v>0.67993400000000004</v>
+      </c>
+      <c r="BP2">
+        <v>0.69320099999999996</v>
+      </c>
+      <c r="BQ2">
+        <v>0.69651700000000005</v>
+      </c>
+      <c r="BR2">
+        <v>0.688226</v>
+      </c>
+      <c r="BS2">
+        <v>0.69817600000000002</v>
+      </c>
+      <c r="BT2">
+        <v>0.70315099999999997</v>
+      </c>
+      <c r="BU2">
+        <v>0.69651700000000005</v>
+      </c>
+      <c r="BV2">
+        <v>0.70149300000000003</v>
+      </c>
+      <c r="BW2">
+        <v>0.68490899999999999</v>
+      </c>
+      <c r="BX2">
+        <v>0.70646799999999998</v>
+      </c>
+      <c r="BY2">
+        <v>0.69651700000000005</v>
+      </c>
+      <c r="BZ2">
+        <v>0.70480900000000002</v>
+      </c>
+      <c r="CA2">
+        <v>0.70315099999999997</v>
+      </c>
+      <c r="CB2">
+        <v>0.70646799999999998</v>
+      </c>
+      <c r="CC2">
+        <v>0.71475999999999995</v>
+      </c>
+      <c r="CD2">
+        <v>0.70812600000000003</v>
+      </c>
+      <c r="CE2">
+        <v>0.71144300000000005</v>
+      </c>
+      <c r="CF2">
+        <v>0.69320099999999996</v>
+      </c>
+      <c r="CG2">
+        <v>0.70149300000000003</v>
+      </c>
+      <c r="CH2">
+        <v>0.70315099999999997</v>
+      </c>
+      <c r="CI2">
+        <v>0.694859</v>
+      </c>
+      <c r="CJ2">
+        <v>0.70978399999999997</v>
+      </c>
+      <c r="CK2">
+        <v>0.70480900000000002</v>
+      </c>
+      <c r="CL2">
+        <v>0.70978399999999997</v>
+      </c>
+      <c r="CM2">
+        <v>0.70315099999999997</v>
+      </c>
+      <c r="CN2">
+        <v>0.70315099999999997</v>
+      </c>
+      <c r="CO2">
+        <v>0.70646799999999998</v>
+      </c>
+      <c r="CP2">
+        <v>0.68988400000000005</v>
+      </c>
+      <c r="CQ2">
+        <v>0.68656700000000004</v>
+      </c>
+      <c r="CR2">
+        <v>0.70978399999999997</v>
+      </c>
+      <c r="CS2">
+        <v>0.70978399999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>4.1700000000000001E-3</v>
+      </c>
+      <c r="D3">
+        <v>5.7548000000000002E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.15763099999999999</v>
+      </c>
+      <c r="F3">
+        <v>0.23519599999999999</v>
+      </c>
+      <c r="G3">
+        <v>0.275229</v>
+      </c>
+      <c r="H3">
+        <v>0.33194299999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.36280200000000001</v>
+      </c>
+      <c r="J3">
+        <v>0.39366099999999998</v>
+      </c>
+      <c r="K3">
+        <v>0.421184</v>
+      </c>
+      <c r="L3">
+        <v>0.436197</v>
+      </c>
+      <c r="M3">
+        <v>0.46372000000000002</v>
+      </c>
+      <c r="N3">
+        <v>0.482902</v>
+      </c>
+      <c r="O3">
+        <v>0.50375300000000001</v>
+      </c>
+      <c r="P3">
+        <v>0.52710599999999996</v>
+      </c>
+      <c r="Q3">
+        <v>0.52710599999999996</v>
+      </c>
+      <c r="R3">
+        <v>0.53544599999999998</v>
+      </c>
+      <c r="S3">
+        <v>0.56130100000000005</v>
+      </c>
+      <c r="T3">
+        <v>0.55129300000000003</v>
+      </c>
+      <c r="U3">
+        <v>0.58632200000000001</v>
+      </c>
+      <c r="V3">
+        <v>0.59299400000000002</v>
+      </c>
+      <c r="W3">
+        <v>0.60884099999999997</v>
+      </c>
+      <c r="X3">
+        <v>0.61384499999999997</v>
+      </c>
+      <c r="Y3">
+        <v>0.61801499999999998</v>
+      </c>
+      <c r="Z3">
+        <v>0.62468699999999999</v>
+      </c>
+      <c r="AA3">
+        <v>0.62218499999999999</v>
+      </c>
+      <c r="AB3">
+        <v>0.61718099999999998</v>
+      </c>
+      <c r="AC3">
+        <v>0.627189</v>
+      </c>
+      <c r="AD3">
+        <v>0.62552099999999999</v>
+      </c>
+      <c r="AE3">
+        <v>0.64387000000000005</v>
+      </c>
+      <c r="AF3">
+        <v>0.64303600000000005</v>
+      </c>
+      <c r="AG3">
+        <v>0.65054199999999995</v>
+      </c>
+      <c r="AH3">
+        <v>0.65220999999999996</v>
+      </c>
+      <c r="AI3">
+        <v>0.64803999999999995</v>
+      </c>
+      <c r="AJ3">
+        <v>0.662219</v>
+      </c>
+      <c r="AK3">
+        <v>0.64637199999999995</v>
+      </c>
+      <c r="AL3">
+        <v>0.65971599999999997</v>
+      </c>
+      <c r="AM3">
+        <v>0.67139300000000002</v>
+      </c>
+      <c r="AN3">
+        <v>0.66638900000000001</v>
+      </c>
+      <c r="AO3">
+        <v>0.663887</v>
+      </c>
+      <c r="AP3">
+        <v>0.66805700000000001</v>
+      </c>
+      <c r="AQ3">
+        <v>0.66972500000000001</v>
+      </c>
+      <c r="AR3">
+        <v>0.67556300000000002</v>
+      </c>
+      <c r="AS3">
+        <v>0.67472900000000002</v>
+      </c>
+      <c r="AT3">
+        <v>0.67723100000000003</v>
+      </c>
+      <c r="AU3">
+        <v>0.67472900000000002</v>
+      </c>
+      <c r="AV3">
+        <v>0.68140100000000003</v>
+      </c>
+      <c r="AW3">
+        <v>0.67889900000000003</v>
+      </c>
+      <c r="AX3">
+        <v>0.68807300000000005</v>
+      </c>
+      <c r="AY3">
+        <v>0.68473700000000004</v>
+      </c>
+      <c r="AZ3">
+        <v>0.68140100000000003</v>
+      </c>
+      <c r="BA3">
+        <v>0.68557100000000004</v>
+      </c>
+      <c r="BB3">
+        <v>0.68640500000000004</v>
+      </c>
+      <c r="BC3">
+        <v>0.69557999999999998</v>
+      </c>
+      <c r="BD3">
+        <v>0.68974100000000005</v>
+      </c>
+      <c r="BE3">
+        <v>0.68640500000000004</v>
+      </c>
+      <c r="BF3">
+        <v>0.68890700000000005</v>
+      </c>
+      <c r="BG3">
+        <v>0.69140999999999997</v>
+      </c>
+      <c r="BH3">
+        <v>0.68640500000000004</v>
+      </c>
+      <c r="BI3">
+        <v>0.69724799999999998</v>
+      </c>
+      <c r="BJ3">
+        <v>0.707256</v>
+      </c>
+      <c r="BK3">
+        <v>0.68723900000000004</v>
+      </c>
+      <c r="BL3">
+        <v>0.69224399999999997</v>
+      </c>
+      <c r="BM3">
+        <v>0.69307799999999997</v>
+      </c>
+      <c r="BN3">
+        <v>0.68140100000000003</v>
+      </c>
+      <c r="BO3">
+        <v>0.69057500000000005</v>
+      </c>
+      <c r="BP3">
+        <v>0.69057500000000005</v>
+      </c>
+      <c r="BQ3">
+        <v>0.70058399999999998</v>
+      </c>
+      <c r="BR3">
+        <v>0.68640500000000004</v>
+      </c>
+      <c r="BS3">
+        <v>0.68723900000000004</v>
+      </c>
+      <c r="BT3">
+        <v>0.68974100000000005</v>
+      </c>
+      <c r="BU3">
+        <v>0.69307799999999997</v>
+      </c>
+      <c r="BV3">
+        <v>0.70141799999999999</v>
+      </c>
+      <c r="BW3">
+        <v>0.68223500000000004</v>
+      </c>
+      <c r="BX3">
+        <v>0.70058399999999998</v>
+      </c>
+      <c r="BY3">
+        <v>0.69808199999999998</v>
+      </c>
+      <c r="BZ3">
+        <v>0.70558799999999999</v>
+      </c>
+      <c r="CA3">
+        <v>0.69974999999999998</v>
+      </c>
+      <c r="CB3">
+        <v>0.69474599999999997</v>
+      </c>
+      <c r="CC3">
+        <v>0.69307799999999997</v>
+      </c>
+      <c r="CD3">
+        <v>0.69891599999999998</v>
+      </c>
+      <c r="CE3">
+        <v>0.67806500000000003</v>
+      </c>
+      <c r="CF3">
+        <v>0.70225199999999999</v>
+      </c>
+      <c r="CG3">
+        <v>0.69974999999999998</v>
+      </c>
+      <c r="CH3">
+        <v>0.69224399999999997</v>
+      </c>
+      <c r="CI3">
+        <v>0.69557999999999998</v>
+      </c>
+      <c r="CJ3">
+        <v>0.70141799999999999</v>
+      </c>
+      <c r="CK3">
+        <v>0.70058399999999998</v>
+      </c>
+      <c r="CL3">
+        <v>0.69057500000000005</v>
+      </c>
+      <c r="CM3">
+        <v>0.70141799999999999</v>
+      </c>
+      <c r="CN3">
+        <v>0.69307799999999997</v>
+      </c>
+      <c r="CO3">
+        <v>0.707256</v>
+      </c>
+      <c r="CP3">
+        <v>0.69724799999999998</v>
+      </c>
+      <c r="CQ3">
+        <v>0.68223500000000004</v>
+      </c>
+      <c r="CR3">
+        <v>0.70308599999999999</v>
+      </c>
+      <c r="CS3">
+        <v>0.69641399999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:97" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B4">
         <v>1.6681000000000001E-2</v>
       </c>
-      <c r="C2">
+      <c r="C4">
         <v>7.4229000000000003E-2</v>
       </c>
-      <c r="D2">
+      <c r="D4">
         <v>0.18515400000000001</v>
       </c>
-      <c r="E2">
+      <c r="E4">
         <v>0.356964</v>
       </c>
-      <c r="F2">
+      <c r="F4">
         <v>0.45537899999999998</v>
       </c>
-      <c r="G2">
+      <c r="G4">
         <v>0.49541299999999999</v>
       </c>
-      <c r="H2">
+      <c r="H4">
         <v>0.56380300000000005</v>
       </c>
-      <c r="I2">
+      <c r="I4">
         <v>0.58965800000000002</v>
       </c>
-      <c r="J2">
+      <c r="J4">
         <v>0.61467899999999998</v>
       </c>
-      <c r="K2">
+      <c r="K4">
         <v>0.63803200000000004</v>
       </c>
-      <c r="L2">
+      <c r="L4">
         <v>0.65387799999999996</v>
       </c>
-      <c r="M2">
+      <c r="M4">
         <v>0.67556300000000002</v>
       </c>
-      <c r="N2">
+      <c r="N4">
         <v>0.68640500000000004</v>
       </c>
-      <c r="O2">
+      <c r="O4">
         <v>0.70475399999999999</v>
       </c>
-      <c r="P2">
+      <c r="P4">
         <v>0.71643000000000001</v>
       </c>
-      <c r="Q2">
+      <c r="Q4">
         <v>0.71309400000000001</v>
       </c>
-      <c r="R2">
+      <c r="R4">
         <v>0.72977499999999995</v>
       </c>
-      <c r="S2">
+      <c r="S4">
         <v>0.74311899999999997</v>
       </c>
-      <c r="T2">
+      <c r="T4">
         <v>0.74478699999999998</v>
       </c>
-      <c r="U2">
+      <c r="U4">
         <v>0.77231000000000005</v>
       </c>
-      <c r="V2">
+      <c r="V4">
         <v>0.76397000000000004</v>
       </c>
-      <c r="W2">
+      <c r="W4">
         <v>0.77397800000000005</v>
       </c>
-      <c r="X2">
+      <c r="X4">
         <v>0.787323</v>
       </c>
-      <c r="Y2">
+      <c r="Y4">
         <v>0.78398699999999999</v>
       </c>
-      <c r="Z2">
+      <c r="Z4">
         <v>0.79566300000000001</v>
       </c>
-      <c r="AA2">
+      <c r="AA4">
         <v>0.78648899999999999</v>
       </c>
-      <c r="AB2">
+      <c r="AB4">
         <v>0.789825</v>
       </c>
-      <c r="AC2">
+      <c r="AC4">
         <v>0.791493</v>
       </c>
-      <c r="AD2">
+      <c r="AD4">
         <v>0.79482900000000001</v>
       </c>
-      <c r="AE2">
+      <c r="AE4">
         <v>0.80066700000000002</v>
       </c>
-      <c r="AF2">
+      <c r="AF4">
         <v>0.80650500000000003</v>
       </c>
-      <c r="AG2">
+      <c r="AG4">
         <v>0.80400300000000002</v>
       </c>
-      <c r="AH2">
+      <c r="AH4">
         <v>0.81401199999999996</v>
       </c>
-      <c r="AI2">
+      <c r="AI4">
         <v>0.81234399999999996</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ4">
         <v>0.81651399999999996</v>
       </c>
-      <c r="AK2">
+      <c r="AK4">
         <v>0.81818199999999996</v>
       </c>
-      <c r="AL2">
+      <c r="AL4">
         <v>0.82151799999999997</v>
       </c>
-      <c r="AM2">
+      <c r="AM4">
         <v>0.82818999999999998</v>
       </c>
-      <c r="AN2">
+      <c r="AN4">
         <v>0.81734799999999996</v>
       </c>
-      <c r="AO2">
+      <c r="AO4">
         <v>0.81150999999999995</v>
       </c>
-      <c r="AP2">
+      <c r="AP4">
         <v>0.81901599999999997</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ4">
         <v>0.82652199999999998</v>
       </c>
-      <c r="AR2">
+      <c r="AR4">
         <v>0.82151799999999997</v>
       </c>
-      <c r="AS2">
+      <c r="AS4">
         <v>0.82568799999999998</v>
       </c>
-      <c r="AT2">
+      <c r="AT4">
         <v>0.83569599999999999</v>
       </c>
-      <c r="AU2">
+      <c r="AU4">
         <v>0.82318599999999997</v>
       </c>
-      <c r="AV2">
+      <c r="AV4">
         <v>0.82068399999999997</v>
       </c>
-      <c r="AW2">
+      <c r="AW4">
         <v>0.82652199999999998</v>
       </c>
-      <c r="AX2">
+      <c r="AX4">
         <v>0.83235999999999999</v>
       </c>
-      <c r="AY2">
+      <c r="AY4">
         <v>0.83402799999999999</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ4">
         <v>0.82068399999999997</v>
       </c>
-      <c r="BA2">
+      <c r="BA4">
         <v>0.83319399999999999</v>
       </c>
-      <c r="BB2">
+      <c r="BB4">
         <v>0.83152599999999999</v>
       </c>
-      <c r="BC2">
+      <c r="BC4">
         <v>0.83569599999999999</v>
       </c>
-      <c r="BD2">
+      <c r="BD4">
         <v>0.83653</v>
       </c>
-      <c r="BE2">
+      <c r="BE4">
         <v>0.83903300000000003</v>
       </c>
-      <c r="BF2">
+      <c r="BF4">
         <v>0.83486199999999999</v>
       </c>
-      <c r="BG2">
+      <c r="BG4">
         <v>0.83903300000000003</v>
       </c>
-      <c r="BH2">
+      <c r="BH4">
         <v>0.83235999999999999</v>
       </c>
-      <c r="BI2">
+      <c r="BI4">
         <v>0.83653</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ4">
         <v>0.83986700000000003</v>
       </c>
-      <c r="BK2">
+      <c r="BK4">
         <v>0.84153500000000003</v>
       </c>
-      <c r="BL2">
+      <c r="BL4">
         <v>0.84570500000000004</v>
       </c>
-      <c r="BM2">
+      <c r="BM4">
         <v>0.838198</v>
       </c>
-      <c r="BN2">
+      <c r="BN4">
         <v>0.82818999999999998</v>
       </c>
-      <c r="BO2">
+      <c r="BO4">
         <v>0.838198</v>
       </c>
-      <c r="BP2">
+      <c r="BP4">
         <v>0.83319399999999999</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ4">
         <v>0.84070100000000003</v>
       </c>
-      <c r="BR2">
+      <c r="BR4">
         <v>0.837364</v>
       </c>
-      <c r="BS2">
+      <c r="BS4">
         <v>0.83569599999999999</v>
       </c>
-      <c r="BT2">
+      <c r="BT4">
         <v>0.84320300000000004</v>
       </c>
-      <c r="BU2">
+      <c r="BU4">
         <v>0.83986700000000003</v>
       </c>
-      <c r="BV2">
+      <c r="BV4">
         <v>0.837364</v>
       </c>
-      <c r="BW2">
+      <c r="BW4">
         <v>0.82485399999999998</v>
       </c>
-      <c r="BX2">
+      <c r="BX4">
         <v>0.84403700000000004</v>
       </c>
-      <c r="BY2">
+      <c r="BY4">
         <v>0.83986700000000003</v>
       </c>
-      <c r="BZ2">
+      <c r="BZ4">
         <v>0.84487100000000004</v>
       </c>
-      <c r="CA2">
+      <c r="CA4">
         <v>0.84653900000000004</v>
       </c>
-      <c r="CB2">
+      <c r="CB4">
         <v>0.83069199999999999</v>
       </c>
-      <c r="CC2">
+      <c r="CC4">
         <v>0.83903300000000003</v>
       </c>
-      <c r="CD2">
+      <c r="CD4">
         <v>0.83235999999999999</v>
       </c>
-      <c r="CE2">
+      <c r="CE4">
         <v>0.82818999999999998</v>
       </c>
-      <c r="CF2">
+      <c r="CF4">
         <v>0.83653</v>
       </c>
-      <c r="CG2">
+      <c r="CG4">
         <v>0.83486199999999999</v>
       </c>
-      <c r="CH2">
+      <c r="CH4">
         <v>0.83235999999999999</v>
       </c>
-      <c r="CI2">
+      <c r="CI4">
         <v>0.83402799999999999</v>
       </c>
-      <c r="CJ2">
+      <c r="CJ4">
         <v>0.83235999999999999</v>
       </c>
-      <c r="CK2">
+      <c r="CK4">
         <v>0.83152599999999999</v>
       </c>
-      <c r="CL2">
+      <c r="CL4">
         <v>0.83319399999999999</v>
       </c>
-      <c r="CM2">
+      <c r="CM4">
         <v>0.83653</v>
       </c>
-      <c r="CN2">
+      <c r="CN4">
         <v>0.82485399999999998</v>
       </c>
-      <c r="CO2">
+      <c r="CO4">
         <v>0.84236900000000003</v>
       </c>
-      <c r="CP2">
+      <c r="CP4">
         <v>0.83402799999999999</v>
       </c>
-      <c r="CQ2">
+      <c r="CQ4">
         <v>0.82568799999999998</v>
       </c>
-      <c r="CR2">
+      <c r="CR4">
         <v>0.83569599999999999</v>
       </c>
-      <c r="CS2">
+      <c r="CS4">
         <v>0.83486199999999999</v>
       </c>
     </row>
